--- a/medicine/Psychotrope/Mariensteiner_(cépage)/Mariensteiner_(cépage).xlsx
+++ b/medicine/Psychotrope/Mariensteiner_(cépage)/Mariensteiner_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mariensteiner_(c%C3%A9page)</t>
+          <t>Mariensteiner_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mariensteiner est un cépage de cuve allemand de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mariensteiner_(c%C3%A9page)</t>
+          <t>Mariensteiner_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de Hans Breider dans l'institut Bayerische Landesanstalt für Weinbau und Gartenbau à Veitshöchheim près de Wurtzbourg. L'origine génétique est vérifiée : c'est un croisement des cépages sylvaner × Rieslaner réalisé en 1951. Le cépage est autorisé dans de nombreux Länder en Allemagne. Le mariensteiner est faiblement cultivé (8 hectares en 2001).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mariensteiner_(c%C3%A9page)</t>
+          <t>Mariensteiner_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aranéeux
 Feuilles adultes, à 5 lobes sinus supérieurs en lyre et avec un sinus pétiolaire en U largement ouvert, dents ogivales, moyennes, en deux séries, un limbe glabre.</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mariensteiner_(c%C3%A9page)</t>
+          <t>Mariensteiner_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive : 15 - 20 jours après le chasselas.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariensteiner_(c%C3%A9page)</t>
+          <t>Mariensteiner_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindrique et compacte. Le cépage est de bonne vigueur et fertile. Il est sensible à l'oïdium mais assez résistant à la pourriture grise. Le cépage donne des vins blanc moyennement alcoolique gardant parfois trop d'acidité. 
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mariensteiner_(c%C3%A9page)</t>
+          <t>Mariensteiner_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mariensteiner est connu sous le sigle Wü B 51-7-3.
 </t>
